--- a/src/main/resources/sql/反洗钱执法检查数据提取规则分析表关系.xlsx
+++ b/src/main/resources/sql/反洗钱执法检查数据提取规则分析表关系.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13155" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12120" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="险种" sheetId="4" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="业务清单" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
     <sheet name="客户信息(自然人)-MAP" sheetId="6" r:id="rId6"/>
+    <sheet name="客户信息(法人)-MAP" sheetId="7" r:id="rId7"/>
+    <sheet name="受益人(法人下的受益人)" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="901">
   <si>
     <t>web_prd_prod</t>
   </si>
@@ -1975,6 +1978,9 @@
   </si>
   <si>
     <t xml:space="preserve">  日期预留2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Times of Endorsement</t>
   </si>
   <si>
     <t>T_RESEV_FLD3</t>
@@ -2773,21 +2779,50 @@
   <si>
     <t>company_code2</t>
   </si>
+  <si>
+    <t>select 
+    c_bnfc_cde cst_no -- 客户号
+    ,c_bnfc_nme acc_name -- 客户名称，
+    ,c_addr address -- 实际经营地址或注册地址
+    ,c_cntr_nme ope_name -- 授权办理业务人员名称
+    ,c_certf_cls id_type4 -- 授权办理业务人员身份证件类型
+    ,c_certf_cde id_no4 -- 授权办理业务人员身份证件号码
+from web_ply_bnfc</t>
+  </si>
+  <si>
+    <t>批改序号</t>
+  </si>
+  <si>
+    <t>批改次数</t>
+  </si>
+  <si>
+    <t>a.</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2800,15 +2835,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2823,15 +2889,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2845,35 +2903,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2885,15 +2926,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2901,7 +2936,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2923,17 +2958,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2959,7 +3002,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2971,61 +3086,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3037,13 +3116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3061,13 +3134,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3079,67 +3164,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3150,45 +3193,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3206,6 +3210,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3236,6 +3264,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3255,157 +3298,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3415,9 +3470,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3430,9 +3482,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3778,7 +3827,7 @@
   <dimension ref="B1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D20"/>
+      <selection activeCell="I1" sqref="I1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.25"/>
@@ -4386,7 +4435,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.25"/>
@@ -4415,7 +4464,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>152</v>
       </c>
       <c r="B2" t="s">
@@ -4430,7 +4479,7 @@
       <c r="F2" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>152</v>
       </c>
       <c r="H2" t="s">
@@ -4441,7 +4490,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
         <v>155</v>
       </c>
@@ -4454,7 +4503,7 @@
       <c r="F3" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="12"/>
       <c r="H3" t="s">
         <v>157</v>
       </c>
@@ -4463,7 +4512,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>159</v>
       </c>
@@ -4476,7 +4525,7 @@
       <c r="F4" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="12" t="s">
         <v>161</v>
       </c>
       <c r="H4" t="s">
@@ -4487,14 +4536,14 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="12"/>
       <c r="H5" t="s">
         <v>98</v>
       </c>
@@ -4503,7 +4552,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>164</v>
       </c>
@@ -4516,7 +4565,7 @@
       <c r="F6" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="12"/>
       <c r="H6" t="s">
         <v>106</v>
       </c>
@@ -4525,7 +4574,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>166</v>
       </c>
@@ -4538,7 +4587,7 @@
       <c r="F7" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="12" t="s">
         <v>168</v>
       </c>
       <c r="H7" t="s">
@@ -4549,7 +4598,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>157</v>
       </c>
@@ -4562,7 +4611,7 @@
       <c r="F8" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="12"/>
       <c r="H8" t="s">
         <v>171</v>
       </c>
@@ -4571,7 +4620,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" t="s">
         <v>173</v>
       </c>
@@ -4584,7 +4633,7 @@
       <c r="F9" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="12"/>
       <c r="H9" t="s">
         <v>175</v>
       </c>
@@ -4593,7 +4642,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>161</v>
       </c>
       <c r="B10" t="s">
@@ -4602,7 +4651,7 @@
       <c r="C10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="12" t="s">
         <v>161</v>
       </c>
       <c r="E10" t="s">
@@ -4611,7 +4660,7 @@
       <c r="F10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="12"/>
       <c r="H10" t="s">
         <v>177</v>
       </c>
@@ -4620,21 +4669,21 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" t="s">
         <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="12"/>
       <c r="E11" t="s">
         <v>98</v>
       </c>
       <c r="F11" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="12"/>
       <c r="H11" t="s">
         <v>179</v>
       </c>
@@ -4643,21 +4692,21 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="12"/>
       <c r="E12" t="s">
         <v>102</v>
       </c>
       <c r="F12" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="12"/>
       <c r="H12" t="s">
         <v>182</v>
       </c>
@@ -4666,21 +4715,21 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>106</v>
       </c>
       <c r="C13" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="12"/>
       <c r="E13" t="s">
         <v>106</v>
       </c>
       <c r="F13" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="12"/>
       <c r="H13" t="s">
         <v>184</v>
       </c>
@@ -4689,7 +4738,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>186</v>
       </c>
       <c r="B14" t="s">
@@ -4706,7 +4755,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" t="s">
         <v>116</v>
       </c>
@@ -4721,7 +4770,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="12"/>
       <c r="B16" t="s">
         <v>118</v>
       </c>
@@ -4730,7 +4779,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" t="s">
         <v>120</v>
       </c>
@@ -4747,7 +4796,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>192</v>
       </c>
       <c r="B19" t="s">
@@ -4761,7 +4810,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" t="s">
         <v>195</v>
       </c>
@@ -4770,7 +4819,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" t="s">
         <v>122</v>
       </c>
@@ -4779,7 +4828,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>124</v>
       </c>
@@ -4788,7 +4837,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="12"/>
       <c r="B23" t="s">
         <v>126</v>
       </c>
@@ -4797,7 +4846,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>197</v>
       </c>
       <c r="B24" t="s">
@@ -4806,7 +4855,7 @@
       <c r="C24" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="12" t="s">
         <v>197</v>
       </c>
       <c r="E24" t="s">
@@ -5016,7 +5065,7 @@
   <sheetPr/>
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -5062,7 +5111,7 @@
       <c r="F2" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I2" t="s">
@@ -5071,7 +5120,7 @@
       <c r="J2" t="s">
         <v>154</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="12" t="s">
         <v>152</v>
       </c>
       <c r="L2" t="s">
@@ -5080,7 +5129,7 @@
       <c r="M2" t="s">
         <v>154</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="12" t="s">
         <v>152</v>
       </c>
       <c r="O2" t="s">
@@ -5103,21 +5152,21 @@
       <c r="F3" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="12"/>
       <c r="I3" t="s">
         <v>155</v>
       </c>
       <c r="J3" t="s">
         <v>156</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="12"/>
       <c r="L3" t="s">
         <v>155</v>
       </c>
       <c r="M3" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="12"/>
       <c r="O3" t="s">
         <v>155</v>
       </c>
@@ -5138,14 +5187,14 @@
       <c r="F4" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="12"/>
       <c r="I4" t="s">
         <v>157</v>
       </c>
       <c r="J4" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="12"/>
       <c r="L4" t="s">
         <v>157</v>
       </c>
@@ -5166,14 +5215,14 @@
       <c r="F5" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="12"/>
       <c r="I5" t="s">
         <v>173</v>
       </c>
       <c r="J5" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="12"/>
       <c r="L5" t="s">
         <v>173</v>
       </c>
@@ -5200,7 +5249,7 @@
       <c r="J6" t="s">
         <v>201</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="12" t="s">
         <v>161</v>
       </c>
       <c r="L6" t="s">
@@ -5209,7 +5258,7 @@
       <c r="M6" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="12" t="s">
         <v>161</v>
       </c>
       <c r="O6" t="s">
@@ -5238,14 +5287,14 @@
       <c r="J7" t="s">
         <v>234</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="12"/>
       <c r="L7" t="s">
         <v>98</v>
       </c>
       <c r="M7" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="12"/>
       <c r="O7" t="s">
         <v>98</v>
       </c>
@@ -5272,7 +5321,7 @@
       <c r="J8" t="s">
         <v>237</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="12"/>
       <c r="L8" t="s">
         <v>106</v>
       </c>
@@ -5299,7 +5348,7 @@
       <c r="F9" t="s">
         <v>240</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="12" t="s">
         <v>161</v>
       </c>
       <c r="I9" t="s">
@@ -5308,7 +5357,7 @@
       <c r="J9" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="12"/>
       <c r="L9" t="s">
         <v>241</v>
       </c>
@@ -5335,14 +5384,14 @@
       <c r="F10" t="s">
         <v>248</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="12"/>
       <c r="I10" t="s">
         <v>98</v>
       </c>
       <c r="J10" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="12" t="s">
         <v>249</v>
       </c>
       <c r="L10" t="s">
@@ -5371,14 +5420,14 @@
       <c r="F11" t="s">
         <v>256</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="12"/>
       <c r="I11" t="s">
         <v>106</v>
       </c>
       <c r="J11" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="12"/>
       <c r="L11" t="s">
         <v>116</v>
       </c>
@@ -5405,14 +5454,14 @@
       <c r="F12" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="12"/>
       <c r="I12" t="s">
         <v>241</v>
       </c>
       <c r="J12" t="s">
         <v>242</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="12"/>
       <c r="L12" t="s">
         <v>118</v>
       </c>
@@ -5439,7 +5488,7 @@
       <c r="F13" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="12" t="s">
         <v>186</v>
       </c>
       <c r="I13" t="s">
@@ -5448,7 +5497,7 @@
       <c r="J13" t="s">
         <v>250</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="12"/>
       <c r="L13" t="s">
         <v>120</v>
       </c>
@@ -5469,14 +5518,14 @@
       <c r="F14" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="12"/>
       <c r="I14" t="s">
         <v>116</v>
       </c>
       <c r="J14" t="s">
         <v>117</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="12" t="s">
         <v>192</v>
       </c>
       <c r="L14" t="s">
@@ -5499,14 +5548,14 @@
       <c r="F15" t="s">
         <v>242</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="12"/>
       <c r="I15" t="s">
         <v>118</v>
       </c>
       <c r="J15" t="s">
         <v>119</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="12"/>
       <c r="L15" t="s">
         <v>126</v>
       </c>
@@ -5527,14 +5576,14 @@
       <c r="F16" t="s">
         <v>264</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="12"/>
       <c r="I16" t="s">
         <v>120</v>
       </c>
       <c r="J16" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="12"/>
       <c r="L16" t="s">
         <v>265</v>
       </c>
@@ -5555,7 +5604,7 @@
       <c r="F17" t="s">
         <v>267</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="12" t="s">
         <v>192</v>
       </c>
       <c r="I17" t="s">
@@ -5584,7 +5633,7 @@
       <c r="F18" t="s">
         <v>271</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="12"/>
       <c r="I18" t="s">
         <v>126</v>
       </c>
@@ -5611,14 +5660,14 @@
       <c r="F19" t="s">
         <v>254</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="12"/>
       <c r="I19" t="s">
         <v>274</v>
       </c>
       <c r="J19" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="12" t="s">
         <v>140</v>
       </c>
       <c r="L19" t="s">
@@ -5647,7 +5696,7 @@
       <c r="J20" t="s">
         <v>269</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="12"/>
       <c r="L20" t="s">
         <v>143</v>
       </c>
@@ -5668,7 +5717,7 @@
       <c r="J21" t="s">
         <v>273</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="12"/>
       <c r="L21" t="s">
         <v>145</v>
       </c>
@@ -5692,7 +5741,7 @@
       <c r="J22" t="s">
         <v>281</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="12"/>
       <c r="L22" t="s">
         <v>147</v>
       </c>
@@ -5827,7 +5876,7 @@
       <c r="J29" t="s">
         <v>296</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="12" t="s">
         <v>297</v>
       </c>
       <c r="L29" t="s">
@@ -5844,7 +5893,7 @@
       <c r="J30" t="s">
         <v>298</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="12"/>
       <c r="L30" t="s">
         <v>130</v>
       </c>
@@ -5859,7 +5908,7 @@
       <c r="J31" t="s">
         <v>299</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="12"/>
       <c r="L31" t="s">
         <v>132</v>
       </c>
@@ -5874,7 +5923,7 @@
       <c r="J32" t="s">
         <v>223</v>
       </c>
-      <c r="K32" s="9"/>
+      <c r="K32" s="12"/>
       <c r="L32" t="s">
         <v>134</v>
       </c>
@@ -5883,7 +5932,7 @@
       </c>
     </row>
     <row r="33" spans="11:13">
-      <c r="K33" s="9"/>
+      <c r="K33" s="12"/>
       <c r="L33" t="s">
         <v>136</v>
       </c>
@@ -5892,7 +5941,7 @@
       </c>
     </row>
     <row r="34" spans="11:13">
-      <c r="K34" s="9"/>
+      <c r="K34" s="12"/>
       <c r="L34" t="s">
         <v>138</v>
       </c>
@@ -5926,8 +5975,8 @@
   <sheetPr/>
   <dimension ref="B2:T144"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:U144"/>
+    <sheetView topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.25"/>
@@ -5945,9 +5994,9 @@
     <col min="14" max="14" width="3.22222222222222" customWidth="1"/>
     <col min="15" max="15" width="24.4444444444444" customWidth="1"/>
     <col min="16" max="16" width="36.6666666666667" customWidth="1"/>
-    <col min="18" max="18" width="23.7777777777778" customWidth="1"/>
+    <col min="18" max="18" width="4.22222222222222" customWidth="1"/>
     <col min="19" max="19" width="25.6666666666667" customWidth="1"/>
-    <col min="20" max="20" width="104.555555555556" customWidth="1"/>
+    <col min="20" max="20" width="26.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
@@ -5960,11 +6009,11 @@
       <c r="J2" t="s">
         <v>302</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
       <c r="R2" t="s">
         <v>304</v>
       </c>
@@ -8157,8 +8206,8 @@
       <c r="L51" t="s">
         <v>651</v>
       </c>
-      <c r="N51">
-        <v>49</v>
+      <c r="N51" t="s">
+        <v>652</v>
       </c>
       <c r="O51" t="s">
         <v>426</v>
@@ -8190,10 +8239,10 @@
         <v>50</v>
       </c>
       <c r="K52" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L52" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N52">
         <v>50</v>
@@ -8219,7 +8268,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J53">
         <v>51</v>
@@ -8234,7 +8283,7 @@
         <v>436</v>
       </c>
       <c r="P53" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="R53">
         <v>51</v>
@@ -8243,7 +8292,7 @@
         <v>578</v>
       </c>
       <c r="T53" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="2:20">
@@ -8251,10 +8300,10 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D54" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J54">
         <v>52</v>
@@ -8266,10 +8315,10 @@
         <v>52</v>
       </c>
       <c r="O54" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="P54" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="R54">
         <v>52</v>
@@ -8278,7 +8327,7 @@
         <v>607</v>
       </c>
       <c r="T54" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="55" spans="10:20">
@@ -8292,19 +8341,19 @@
         <v>53</v>
       </c>
       <c r="O55" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="P55" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="R55">
         <v>53</v>
       </c>
       <c r="S55" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T55" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" spans="10:20">
@@ -8318,10 +8367,10 @@
         <v>54</v>
       </c>
       <c r="O56" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P56" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="R56">
         <v>54</v>
@@ -8347,10 +8396,10 @@
         <v>55</v>
       </c>
       <c r="O57" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="P57" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="R57">
         <v>55</v>
@@ -8376,10 +8425,10 @@
         <v>56</v>
       </c>
       <c r="O58" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="P58" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="R58">
         <v>56</v>
@@ -8388,7 +8437,7 @@
         <v>646</v>
       </c>
       <c r="T58" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="59" spans="10:20">
@@ -8399,25 +8448,25 @@
         <v>318</v>
       </c>
       <c r="L59" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N59">
         <v>57</v>
       </c>
       <c r="O59" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="P59" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="R59">
         <v>57</v>
       </c>
       <c r="S59" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="T59" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="60" spans="10:20">
@@ -8425,16 +8474,16 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L60" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N60">
         <v>58</v>
       </c>
       <c r="O60" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="P60" t="s">
         <v>47</v>
@@ -8443,10 +8492,10 @@
         <v>58</v>
       </c>
       <c r="S60" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="T60" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="61" spans="10:20">
@@ -8454,25 +8503,25 @@
         <v>59</v>
       </c>
       <c r="K61" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N61">
         <v>59</v>
       </c>
       <c r="O61" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P61" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="R61">
         <v>59</v>
       </c>
       <c r="S61" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="T61" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="62" spans="10:20">
@@ -8480,25 +8529,25 @@
         <v>60</v>
       </c>
       <c r="K62" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N62">
         <v>60</v>
       </c>
       <c r="O62" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="P62" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="R62">
         <v>60</v>
       </c>
       <c r="S62" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="T62" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="63" spans="10:20">
@@ -8506,25 +8555,25 @@
         <v>61</v>
       </c>
       <c r="K63" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N63">
         <v>61</v>
       </c>
       <c r="O63" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="P63" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="R63">
         <v>61</v>
       </c>
       <c r="S63" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="T63" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="64" spans="10:20">
@@ -8532,25 +8581,25 @@
         <v>62</v>
       </c>
       <c r="K64" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N64">
         <v>62</v>
       </c>
       <c r="O64" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P64" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="R64">
         <v>62</v>
       </c>
       <c r="S64" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T64" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="10:20">
@@ -8558,25 +8607,25 @@
         <v>63</v>
       </c>
       <c r="K65" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N65">
         <v>63</v>
       </c>
       <c r="O65" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P65" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="R65">
         <v>63</v>
       </c>
       <c r="S65" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="T65" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="66" spans="10:20">
@@ -8584,28 +8633,28 @@
         <v>64</v>
       </c>
       <c r="K66" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L66" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N66">
         <v>64</v>
       </c>
       <c r="O66" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="P66" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="R66">
         <v>64</v>
       </c>
       <c r="S66" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="T66" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="67" spans="10:20">
@@ -8613,19 +8662,19 @@
         <v>65</v>
       </c>
       <c r="K67" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L67" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N67">
         <v>65</v>
       </c>
       <c r="O67" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="P67" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="R67">
         <v>65</v>
@@ -8634,7 +8683,7 @@
         <v>530</v>
       </c>
       <c r="T67" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="68" spans="10:20">
@@ -8642,28 +8691,28 @@
         <v>66</v>
       </c>
       <c r="K68" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L68" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N68">
         <v>66</v>
       </c>
       <c r="O68" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="P68" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="R68">
         <v>66</v>
       </c>
       <c r="S68" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T68" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="69" spans="10:20">
@@ -8674,22 +8723,22 @@
         <v>389</v>
       </c>
       <c r="L69" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N69">
         <v>67</v>
       </c>
       <c r="O69" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="P69" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="R69">
         <v>67</v>
       </c>
       <c r="S69" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="T69" t="s">
         <v>47</v>
@@ -8700,28 +8749,28 @@
         <v>68</v>
       </c>
       <c r="K70" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L70" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N70">
         <v>68</v>
       </c>
       <c r="O70" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="P70" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="R70">
         <v>68</v>
       </c>
       <c r="S70" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="T70" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="71" spans="10:20">
@@ -8729,28 +8778,28 @@
         <v>69</v>
       </c>
       <c r="K71" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="L71" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N71">
         <v>69</v>
       </c>
       <c r="O71" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="P71" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="R71">
         <v>69</v>
       </c>
       <c r="S71" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="T71" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="72" spans="10:20">
@@ -8758,28 +8807,28 @@
         <v>70</v>
       </c>
       <c r="K72" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L72" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N72">
         <v>70</v>
       </c>
       <c r="O72" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="P72" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="R72">
         <v>70</v>
       </c>
       <c r="S72" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="T72" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="73" spans="10:20">
@@ -8787,28 +8836,28 @@
         <v>71</v>
       </c>
       <c r="K73" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L73" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N73">
         <v>71</v>
       </c>
       <c r="O73" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="P73" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="R73">
         <v>71</v>
       </c>
       <c r="S73" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="T73" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74" spans="10:20">
@@ -8825,19 +8874,19 @@
         <v>72</v>
       </c>
       <c r="O74" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P74" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="R74">
         <v>72</v>
       </c>
       <c r="S74" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="T74" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="75" spans="10:20">
@@ -8845,28 +8894,28 @@
         <v>73</v>
       </c>
       <c r="K75" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L75" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N75">
         <v>73</v>
       </c>
       <c r="O75" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P75" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="R75">
         <v>73</v>
       </c>
       <c r="S75" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="T75" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="76" spans="10:20">
@@ -8874,7 +8923,7 @@
         <v>74</v>
       </c>
       <c r="K76" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L76" t="s">
         <v>107</v>
@@ -8883,19 +8932,19 @@
         <v>74</v>
       </c>
       <c r="O76" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P76" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="R76">
         <v>74</v>
       </c>
       <c r="S76" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="T76" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="77" spans="10:20">
@@ -8903,28 +8952,28 @@
         <v>75</v>
       </c>
       <c r="K77" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L77" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N77">
         <v>75</v>
       </c>
       <c r="O77" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P77" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="R77">
         <v>75</v>
       </c>
       <c r="S77" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="T77" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="78" spans="10:20">
@@ -8932,28 +8981,28 @@
         <v>76</v>
       </c>
       <c r="K78" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L78" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="N78">
         <v>76</v>
       </c>
       <c r="O78" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="P78" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="R78">
         <v>76</v>
       </c>
       <c r="S78" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T78" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="79" spans="10:20">
@@ -8961,28 +9010,28 @@
         <v>77</v>
       </c>
       <c r="K79" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L79" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N79">
         <v>77</v>
       </c>
       <c r="O79" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P79" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="R79">
         <v>77</v>
       </c>
       <c r="S79" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="T79" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="80" spans="10:20">
@@ -8990,28 +9039,28 @@
         <v>78</v>
       </c>
       <c r="K80" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L80" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N80">
         <v>78</v>
       </c>
       <c r="O80" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P80" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="R80">
         <v>78</v>
       </c>
       <c r="S80" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="T80" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="81" spans="10:20">
@@ -9019,19 +9068,19 @@
         <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L81" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N81">
         <v>79</v>
       </c>
       <c r="O81" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P81" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="R81">
         <v>79</v>
@@ -9040,7 +9089,7 @@
         <v>563</v>
       </c>
       <c r="T81" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="82" spans="10:20">
@@ -9048,28 +9097,28 @@
         <v>80</v>
       </c>
       <c r="K82" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L82" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N82">
         <v>80</v>
       </c>
       <c r="O82" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="P82" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="R82">
         <v>80</v>
       </c>
       <c r="S82" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="T82" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="83" spans="10:20">
@@ -9077,28 +9126,28 @@
         <v>81</v>
       </c>
       <c r="K83" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L83" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N83">
         <v>81</v>
       </c>
       <c r="O83" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="P83" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="R83">
         <v>81</v>
       </c>
       <c r="S83" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="T83" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="84" spans="10:20">
@@ -9106,28 +9155,28 @@
         <v>82</v>
       </c>
       <c r="K84" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L84" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="N84">
         <v>82</v>
       </c>
       <c r="O84" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="P84" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="R84">
         <v>82</v>
       </c>
       <c r="S84" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="T84" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" spans="10:20">
@@ -9135,28 +9184,28 @@
         <v>83</v>
       </c>
       <c r="K85" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L85" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N85">
         <v>83</v>
       </c>
       <c r="O85" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="P85" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="R85">
         <v>83</v>
       </c>
       <c r="S85" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="T85" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="86" spans="10:20">
@@ -9164,28 +9213,28 @@
         <v>84</v>
       </c>
       <c r="K86" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L86" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="N86">
         <v>84</v>
       </c>
       <c r="O86" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="P86" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="R86">
         <v>84</v>
       </c>
       <c r="S86" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="T86" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="87" spans="10:20">
@@ -9193,28 +9242,28 @@
         <v>85</v>
       </c>
       <c r="K87" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L87" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N87">
         <v>85</v>
       </c>
       <c r="O87" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="P87" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="R87">
         <v>85</v>
       </c>
       <c r="S87" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="T87" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="10:20">
@@ -9231,19 +9280,19 @@
         <v>86</v>
       </c>
       <c r="O88" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="P88" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="R88">
         <v>86</v>
       </c>
       <c r="S88" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="T88" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="89" spans="10:20">
@@ -9251,7 +9300,7 @@
         <v>87</v>
       </c>
       <c r="K89" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N89">
         <v>87</v>
@@ -9266,10 +9315,10 @@
         <v>87</v>
       </c>
       <c r="S89" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="T89" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="90" spans="14:20">
@@ -9277,19 +9326,19 @@
         <v>88</v>
       </c>
       <c r="O90" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="P90" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="R90">
         <v>88</v>
       </c>
       <c r="S90" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="T90" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="91" spans="14:20">
@@ -9297,19 +9346,19 @@
         <v>89</v>
       </c>
       <c r="O91" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P91" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="R91">
         <v>89</v>
       </c>
       <c r="S91" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="T91" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="14:20">
@@ -9317,19 +9366,19 @@
         <v>90</v>
       </c>
       <c r="O92" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="P92" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="R92">
         <v>90</v>
       </c>
       <c r="S92" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="T92" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="93" spans="14:20">
@@ -9337,10 +9386,10 @@
         <v>91</v>
       </c>
       <c r="O93" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="P93" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="R93">
         <v>91</v>
@@ -9349,7 +9398,7 @@
         <v>621</v>
       </c>
       <c r="T93" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="94" spans="14:20">
@@ -9357,10 +9406,10 @@
         <v>92</v>
       </c>
       <c r="O94" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="P94" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="R94">
         <v>92</v>
@@ -9369,7 +9418,7 @@
         <v>613</v>
       </c>
       <c r="T94" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="95" spans="14:20">
@@ -9377,19 +9426,19 @@
         <v>93</v>
       </c>
       <c r="O95" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="P95" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="R95">
         <v>93</v>
       </c>
       <c r="S95" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="T95" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="96" spans="14:20">
@@ -9397,19 +9446,19 @@
         <v>94</v>
       </c>
       <c r="O96" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="P96" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="R96">
         <v>94</v>
       </c>
       <c r="S96" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="T96" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="97" spans="14:20">
@@ -9417,19 +9466,19 @@
         <v>95</v>
       </c>
       <c r="O97" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="P97" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="R97">
         <v>95</v>
       </c>
       <c r="S97" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="T97" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="98" spans="14:20">
@@ -9437,19 +9486,19 @@
         <v>96</v>
       </c>
       <c r="O98" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="P98" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="R98">
         <v>96</v>
       </c>
       <c r="S98" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="T98" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="99" spans="14:20">
@@ -9457,19 +9506,19 @@
         <v>97</v>
       </c>
       <c r="O99" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P99" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="R99">
         <v>97</v>
       </c>
       <c r="S99" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="T99" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="100" spans="18:20">
@@ -9477,10 +9526,10 @@
         <v>98</v>
       </c>
       <c r="S100" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="T100" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="101" spans="18:20">
@@ -9488,10 +9537,10 @@
         <v>99</v>
       </c>
       <c r="S101" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="T101" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="102" spans="18:20">
@@ -9499,10 +9548,10 @@
         <v>100</v>
       </c>
       <c r="S102" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="T102" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="103" spans="18:20">
@@ -9510,10 +9559,10 @@
         <v>101</v>
       </c>
       <c r="S103" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="T103" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="104" spans="18:20">
@@ -9521,10 +9570,10 @@
         <v>102</v>
       </c>
       <c r="S104" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="T104" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="105" spans="18:20">
@@ -9532,10 +9581,10 @@
         <v>103</v>
       </c>
       <c r="S105" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="T105" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="106" spans="18:20">
@@ -9543,10 +9592,10 @@
         <v>104</v>
       </c>
       <c r="S106" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="T106" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="107" spans="18:20">
@@ -9554,10 +9603,10 @@
         <v>105</v>
       </c>
       <c r="S107" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="T107" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="108" spans="18:20">
@@ -9565,10 +9614,10 @@
         <v>106</v>
       </c>
       <c r="S108" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="T108" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="109" spans="18:20">
@@ -9576,10 +9625,10 @@
         <v>107</v>
       </c>
       <c r="S109" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="T109" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="110" spans="18:20">
@@ -9587,10 +9636,10 @@
         <v>108</v>
       </c>
       <c r="S110" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="T110" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="111" spans="18:20">
@@ -9598,10 +9647,10 @@
         <v>109</v>
       </c>
       <c r="S111" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="T111" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="112" spans="18:20">
@@ -9609,10 +9658,10 @@
         <v>110</v>
       </c>
       <c r="S112" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="T112" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="113" spans="18:20">
@@ -9620,10 +9669,10 @@
         <v>111</v>
       </c>
       <c r="S113" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="T113" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="114" spans="18:20">
@@ -9631,10 +9680,10 @@
         <v>112</v>
       </c>
       <c r="S114" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="T114" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="115" spans="18:20">
@@ -9642,10 +9691,10 @@
         <v>113</v>
       </c>
       <c r="S115" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="T115" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="116" spans="18:20">
@@ -9653,10 +9702,10 @@
         <v>114</v>
       </c>
       <c r="S116" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="T116" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="117" spans="18:20">
@@ -9664,10 +9713,10 @@
         <v>115</v>
       </c>
       <c r="S117" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="T117" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="118" spans="18:20">
@@ -9675,10 +9724,10 @@
         <v>116</v>
       </c>
       <c r="S118" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="T118" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="119" spans="18:20">
@@ -9686,10 +9735,10 @@
         <v>117</v>
       </c>
       <c r="S119" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="T119" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="120" spans="18:20">
@@ -9697,10 +9746,10 @@
         <v>118</v>
       </c>
       <c r="S120" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="T120" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="121" spans="18:20">
@@ -9708,10 +9757,10 @@
         <v>119</v>
       </c>
       <c r="S121" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="T121" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="122" spans="18:20">
@@ -9719,10 +9768,10 @@
         <v>120</v>
       </c>
       <c r="S122" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="T122" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="123" spans="18:20">
@@ -9730,10 +9779,10 @@
         <v>121</v>
       </c>
       <c r="S123" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="T123" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="124" spans="18:20">
@@ -9741,10 +9790,10 @@
         <v>122</v>
       </c>
       <c r="S124" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="T124" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="125" spans="18:20">
@@ -9752,10 +9801,10 @@
         <v>123</v>
       </c>
       <c r="S125" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="T125" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="126" spans="18:20">
@@ -9763,10 +9812,10 @@
         <v>124</v>
       </c>
       <c r="S126" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="T126" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="127" spans="18:20">
@@ -9774,10 +9823,10 @@
         <v>125</v>
       </c>
       <c r="S127" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="T127" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="128" spans="18:20">
@@ -9785,10 +9834,10 @@
         <v>126</v>
       </c>
       <c r="S128" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="T128" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="129" spans="18:20">
@@ -9796,10 +9845,10 @@
         <v>127</v>
       </c>
       <c r="S129" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="T129" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="130" spans="18:20">
@@ -9807,10 +9856,10 @@
         <v>128</v>
       </c>
       <c r="S130" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="T130" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="131" spans="18:20">
@@ -9818,10 +9867,10 @@
         <v>129</v>
       </c>
       <c r="S131" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="T131" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="132" spans="18:20">
@@ -9840,10 +9889,10 @@
         <v>131</v>
       </c>
       <c r="S133" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="T133" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="134" spans="18:20">
@@ -9851,10 +9900,10 @@
         <v>132</v>
       </c>
       <c r="S134" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="T134" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="135" spans="18:20">
@@ -9862,10 +9911,10 @@
         <v>133</v>
       </c>
       <c r="S135" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="T135" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="136" spans="18:20">
@@ -9873,10 +9922,10 @@
         <v>134</v>
       </c>
       <c r="S136" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="T136" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="137" spans="18:20">
@@ -9884,10 +9933,10 @@
         <v>135</v>
       </c>
       <c r="S137" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="T137" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="138" spans="18:20">
@@ -9895,10 +9944,10 @@
         <v>136</v>
       </c>
       <c r="S138" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="T138" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="139" spans="18:20">
@@ -9906,10 +9955,10 @@
         <v>137</v>
       </c>
       <c r="S139" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="T139" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="140" spans="18:20">
@@ -9917,10 +9966,10 @@
         <v>138</v>
       </c>
       <c r="S140" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="T140" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="141" spans="18:20">
@@ -9928,10 +9977,10 @@
         <v>139</v>
       </c>
       <c r="S141" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="T141" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="142" spans="18:20">
@@ -9939,10 +9988,10 @@
         <v>140</v>
       </c>
       <c r="S142" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="T142" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="143" spans="18:20">
@@ -9950,10 +9999,10 @@
         <v>141</v>
       </c>
       <c r="S143" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="T143" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="144" spans="18:20">
@@ -9961,18 +10010,19 @@
         <v>142</v>
       </c>
       <c r="S144" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="T144" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9984,10 +10034,10 @@
   <sheetPr/>
   <dimension ref="B3:AB70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A43" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A67" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M50" sqref="M50:M70"/>
+      <selection pane="topRight" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.25"/>
@@ -10022,37 +10072,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="J3" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="R3" s="7" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="R3" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="V3" s="3" t="s">
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="V3" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Z3" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Z3" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
     </row>
     <row r="4" spans="2:24">
       <c r="B4" t="s">
@@ -10061,50 +10111,50 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="H4" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="J4" s="7">
         <v>8</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="7">
         <v>58</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="R4" s="3">
+      <c r="P4" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="R4" s="7">
         <v>5</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="7" t="s">
         <v>336</v>
       </c>
     </row>
@@ -10115,22 +10165,22 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
     </row>
     <row r="6" spans="2:24">
       <c r="B6" t="s">
@@ -10139,22 +10189,22 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
     </row>
     <row r="7" spans="2:24">
       <c r="B7" t="s">
@@ -10163,48 +10213,48 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3">
+      <c r="H7" s="7"/>
+      <c r="J7" s="7">
         <v>9</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="7">
         <v>11</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="7">
         <v>6</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3" t="s">
+      <c r="V7" s="7"/>
+      <c r="W7" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="7" t="s">
         <v>344</v>
       </c>
     </row>
@@ -10215,36 +10265,36 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="7">
         <v>16</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="R8" s="3">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="R8" s="7">
         <v>49</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3" t="s">
+      <c r="V8" s="7"/>
+      <c r="W8" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10255,51 +10305,51 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <v>6</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="H9" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="J9" s="7">
         <v>28</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="7">
         <v>19</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="7">
         <v>89</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="T9" s="3" t="s">
+      <c r="S9" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="X9" s="3" t="s">
+      <c r="T9" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7" t="s">
         <v>792</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="2:24">
@@ -10309,50 +10359,50 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="H10" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="J10" s="7">
         <v>14</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="7">
         <v>12</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="7">
         <v>26</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3" t="s">
+      <c r="V10" s="7"/>
+      <c r="W10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="7" t="s">
         <v>358</v>
       </c>
     </row>
@@ -10363,48 +10413,48 @@
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>36</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3">
+      <c r="H11" s="7"/>
+      <c r="J11" s="7">
         <v>15</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="7">
         <v>13</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="7">
         <v>25</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3" t="s">
+      <c r="V11" s="7"/>
+      <c r="W11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="7" t="s">
         <v>368</v>
       </c>
     </row>
@@ -10415,31 +10465,31 @@
       <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="R12" s="3">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="R12" s="7">
         <v>52</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="T12" s="3" t="s">
+      <c r="S12" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="X12" s="3" t="s">
+      <c r="T12" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7" t="s">
         <v>660</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="2:24">
@@ -10449,36 +10499,36 @@
       <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="N13" s="3">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="N13" s="7">
         <v>10</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="7">
         <v>50</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3" t="s">
+      <c r="V13" s="7"/>
+      <c r="W13" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -10489,28 +10539,28 @@
       <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="N14" s="3">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="N14" s="7">
         <v>20</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
     </row>
     <row r="15" spans="2:24">
       <c r="B15" t="s">
@@ -10519,24 +10569,24 @@
       <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="7" t="s">
         <v>595</v>
       </c>
     </row>
@@ -10547,44 +10597,44 @@
       <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>30</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="H16" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="J16" s="7">
         <v>22</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="R16" s="3">
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="R16" s="7">
         <v>17</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3" t="s">
+      <c r="V16" s="7"/>
+      <c r="W16" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="X16" s="7" t="s">
         <v>441</v>
       </c>
     </row>
@@ -10595,36 +10645,36 @@
       <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="3">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="J17" s="7">
         <v>23</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="R17" s="3">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="R17" s="7">
         <v>18</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="T17" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3" t="s">
+      <c r="V17" s="7"/>
+      <c r="W17" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="X17" s="7" t="s">
         <v>443</v>
       </c>
     </row>
@@ -10635,25 +10685,25 @@
       <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>708</v>
+      <c r="X18" s="7" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="2:24">
@@ -10663,30 +10713,30 @@
       <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="R19" s="3">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="R19" s="7">
         <v>15</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="S19" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3" t="s">
+      <c r="V19" s="7"/>
+      <c r="W19" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="7" t="s">
         <v>421</v>
       </c>
     </row>
@@ -10697,24 +10747,24 @@
       <c r="C20" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="7" t="s">
         <v>497</v>
       </c>
     </row>
@@ -10725,24 +10775,24 @@
       <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="X21" s="7" t="s">
         <v>518</v>
       </c>
     </row>
@@ -10753,513 +10803,513 @@
       <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="R22" s="3">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="R22" s="7">
         <v>8</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3" t="s">
+      <c r="V22" s="7"/>
+      <c r="W22" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="7" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="23" spans="10:24">
-      <c r="J23" s="3">
+      <c r="J23" s="7">
         <v>29</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="7">
         <v>7</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3" t="s">
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="X23" s="7" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="24" spans="10:24">
-      <c r="J24" s="3">
+      <c r="J24" s="7">
         <v>31</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="7">
         <v>18</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="7">
         <v>51</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="S24" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="X24" s="3" t="s">
+      <c r="T24" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7" t="s">
         <v>794</v>
       </c>
+      <c r="X24" s="7" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="25" spans="5:24">
-      <c r="E25" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="N25" s="3">
+      <c r="E25" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="N25" s="7">
         <v>8</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3" t="s">
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="X25" s="7" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="26" spans="10:24">
-      <c r="J26" s="3">
+      <c r="J26" s="7">
         <v>2</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="7">
         <v>9</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="7">
         <v>90</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="T26" s="3" t="s">
+      <c r="S26" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3" t="s">
+      <c r="T26" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="X26" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="27" spans="10:24">
-      <c r="J27" s="3">
+      <c r="J27" s="7">
         <v>4</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="7">
         <v>21</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="7">
         <v>92</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="T27" s="3" t="s">
+      <c r="S27" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="X27" s="3" t="s">
+      <c r="T27" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7" t="s">
         <v>680</v>
       </c>
+      <c r="X27" s="7" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="28" spans="10:24">
-      <c r="J28" s="3">
+      <c r="J28" s="7">
         <v>5</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="7">
         <v>22</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P28" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="7">
         <v>93</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="T28" s="3" t="s">
+      <c r="S28" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3" t="s">
+      <c r="T28" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="X28" s="7" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29" spans="10:24">
-      <c r="J29" s="3">
+      <c r="J29" s="7">
         <v>6</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="7">
         <v>72</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="7">
         <v>94</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3" t="s">
+      <c r="T29" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="X29" s="3"/>
+      <c r="X29" s="7"/>
     </row>
     <row r="30" spans="10:24">
-      <c r="J30" s="3">
+      <c r="J30" s="7">
         <v>10</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="7">
         <v>73</v>
       </c>
-      <c r="O30" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="P30" s="3" t="s">
+      <c r="O30" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="R30" s="3">
+      <c r="P30" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="R30" s="7">
         <v>95</v>
       </c>
-      <c r="S30" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="T30" s="3" t="s">
+      <c r="S30" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
+      <c r="T30" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
     </row>
     <row r="31" spans="10:24">
-      <c r="J31" s="3">
+      <c r="J31" s="7">
         <v>18</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="7">
         <v>74</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="P31" s="3" t="s">
+      <c r="O31" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="7">
         <v>24</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="S31" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="T31" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="V31" s="8" t="s">
-        <v>888</v>
-      </c>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
+      <c r="V31" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
     </row>
     <row r="32" spans="14:20">
-      <c r="N32" s="3">
+      <c r="N32" s="7">
         <v>2</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="R32" s="3">
+      <c r="P32" s="7"/>
+      <c r="R32" s="7">
         <v>1</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="T32" s="7" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="33" spans="14:20">
-      <c r="N33" s="3">
+      <c r="N33" s="7">
         <v>4</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="7">
         <v>2</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="T33" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="34" spans="10:20">
-      <c r="J34" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="N34" s="3">
+      <c r="J34" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="N34" s="7">
         <v>5</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="7">
         <v>3</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="S34" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="T34" s="7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="35" spans="14:20">
-      <c r="N35" s="3">
+      <c r="N35" s="7">
         <v>6</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="7">
         <v>4</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="S35" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="T35" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="36" spans="18:20">
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
     </row>
     <row r="37" ht="16" customHeight="1" spans="14:20">
-      <c r="N37" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="R37" s="3">
+      <c r="N37" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="R37" s="7">
         <v>7</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="S37" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="T37" s="7" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="38" spans="18:20">
-      <c r="R38" s="3">
+      <c r="R38" s="7">
         <v>9</v>
       </c>
-      <c r="S38" s="3" t="s">
+      <c r="S38" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="T38" s="7" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="39" spans="18:20">
-      <c r="R39" s="3">
+      <c r="R39" s="7">
         <v>10</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="S39" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="T39" s="7" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="40" spans="18:20">
-      <c r="R40" s="3">
+      <c r="R40" s="7">
         <v>20</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="S40" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="T40" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="41" spans="18:20">
-      <c r="R41" s="3">
+      <c r="R41" s="7">
         <v>21</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="S41" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="T41" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="18:20">
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
     </row>
     <row r="43" spans="18:20">
-      <c r="R43" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="R43" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
     </row>
     <row r="50" spans="6:13">
       <c r="F50" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G50" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H50" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I50" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J50" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K50" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L50" t="str">
         <f>_xlfn.CONCAT(",",K50," ",F50)</f>
@@ -11272,22 +11322,22 @@
     </row>
     <row r="51" spans="6:13">
       <c r="F51" t="s">
+        <v>895</v>
+      </c>
+      <c r="G51" t="s">
         <v>894</v>
       </c>
-      <c r="G51" t="s">
-        <v>893</v>
-      </c>
       <c r="H51" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I51" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J51" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K51" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" ref="L51:L70" si="0">_xlfn.CONCAT(",",K51," ",F51)</f>
@@ -11331,19 +11381,19 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H53" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I53" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J53" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K53" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="0"/>
@@ -11359,19 +11409,19 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H54" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I54" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J54" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K54" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="0"/>
@@ -11415,13 +11465,13 @@
         <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H56" t="s">
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J56" t="s">
         <v>16</v>
@@ -11449,7 +11499,7 @@
         <v>22</v>
       </c>
       <c r="I57" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J57" t="s">
         <v>22</v>
@@ -11527,19 +11577,19 @@
         <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H60" t="s">
         <v>39</v>
       </c>
       <c r="I60" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J60" t="s">
         <v>39</v>
       </c>
       <c r="K60" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="0"/>
@@ -11564,13 +11614,13 @@
         <v>44</v>
       </c>
       <c r="I61" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J61" t="s">
         <v>44</v>
       </c>
       <c r="K61" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="0"/>
@@ -11592,16 +11642,16 @@
         <v>50</v>
       </c>
       <c r="H62" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I62" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J62" t="s">
         <v>50</v>
       </c>
       <c r="K62" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L62" t="str">
         <f t="shared" si="0"/>
@@ -11617,19 +11667,19 @@
         <v>56</v>
       </c>
       <c r="G63" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H63" t="s">
         <v>56</v>
       </c>
       <c r="I63" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J63" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K63" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L63" t="str">
         <f t="shared" si="0"/>
@@ -11645,7 +11695,7 @@
         <v>60</v>
       </c>
       <c r="G64" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H64" t="s">
         <v>60</v>
@@ -11673,16 +11723,16 @@
         <v>64</v>
       </c>
       <c r="G65" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H65" t="s">
         <v>64</v>
       </c>
       <c r="I65" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J65" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K65" t="s">
         <v>64</v>
@@ -11701,19 +11751,19 @@
         <v>68</v>
       </c>
       <c r="G66" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H66" t="s">
         <v>68</v>
       </c>
       <c r="I66" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J66" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K66" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="0"/>
@@ -11729,19 +11779,19 @@
         <v>72</v>
       </c>
       <c r="G67" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H67" t="s">
         <v>72</v>
       </c>
       <c r="I67" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J67" t="s">
         <v>72</v>
       </c>
       <c r="K67" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L67" t="str">
         <f t="shared" si="0"/>
@@ -11757,19 +11807,19 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H68" t="s">
         <v>76</v>
       </c>
       <c r="I68" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J68" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K68" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L68" t="str">
         <f t="shared" si="0"/>
@@ -11788,19 +11838,19 @@
         <v>80</v>
       </c>
       <c r="G69" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H69" t="s">
         <v>80</v>
       </c>
       <c r="I69" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J69" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K69" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L69" t="str">
         <f t="shared" si="0"/>
@@ -11819,19 +11869,19 @@
         <v>84</v>
       </c>
       <c r="G70" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H70" t="s">
         <v>84</v>
       </c>
       <c r="I70" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J70" t="s">
         <v>84</v>
       </c>
       <c r="K70" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="0"/>
@@ -11862,4 +11912,2877 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:W131"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="Q2" sqref="Q2:S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="40.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="3.22222222222222" customWidth="1"/>
+    <col min="6" max="6" width="13.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="13.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="8.88888888888889" customWidth="1"/>
+    <col min="10" max="10" width="14.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="21.0444444444444" customWidth="1"/>
+    <col min="12" max="12" width="8.88888888888889" customWidth="1"/>
+    <col min="13" max="13" width="3.22222222222222" customWidth="1"/>
+    <col min="14" max="14" width="24.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="15.162962962963" customWidth="1"/>
+    <col min="16" max="16" width="9.92592592592593" customWidth="1"/>
+    <col min="17" max="17" width="13.8518518518519" customWidth="1"/>
+    <col min="18" max="18" width="25.6666666666667" customWidth="1"/>
+    <col min="19" max="19" width="30.3333333333333" customWidth="1"/>
+    <col min="20" max="20" width="4.22222222222222" customWidth="1"/>
+    <col min="21" max="21" width="3.22222222222222" customWidth="1"/>
+    <col min="22" max="22" width="11.7777777777778" customWidth="1"/>
+    <col min="23" max="23" width="25.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="I2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="Q2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K3" t="s">
+        <v>356</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>333</v>
+      </c>
+      <c r="O3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>5</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="W3" t="str">
+        <f>_xlfn.CONCAT(R3," ",B3," -- ",C3)</f>
+        <v>C_INSURED_CDE cst_no -- 客户号</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="W4" t="str">
+        <f t="shared" ref="W4:W29" si="0">_xlfn.CONCAT(R4," ",B4," -- ",C4)</f>
+        <v> open_time -- 客户号创建日期</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="0"/>
+        <v> close_time -- 结束时间</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>365</v>
+      </c>
+      <c r="K6" t="s">
+        <v>366</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>342</v>
+      </c>
+      <c r="O6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>6</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="0"/>
+        <v>C_INSURED_NME acc_name -- 客户名称，</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I7">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K7" t="s">
+        <v>508</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>420</v>
+      </c>
+      <c r="O7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>24</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="0"/>
+        <v>C_CLNT_ADDR address -- 实际经营地址或注册地址</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="M8">
+        <v>67</v>
+      </c>
+      <c r="N8" t="s">
+        <v>717</v>
+      </c>
+      <c r="O8" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>76</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="0"/>
+        <v>C_MANAGE_AREA operate -- 经营范围/业务范围</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="0"/>
+        <v> set_file -- 依法设立或经营的执照名称</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="M10">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>683</v>
+      </c>
+      <c r="O10" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q10">
+        <v>68</v>
+      </c>
+      <c r="R10" t="s">
+        <v>683</v>
+      </c>
+      <c r="S10" t="s">
+        <v>684</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="0"/>
+        <v>C_BUSLICENCE_NO license -- 依法设立或经营的执照号码</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="M11">
+        <v>61</v>
+      </c>
+      <c r="N11" t="s">
+        <v>689</v>
+      </c>
+      <c r="O11" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q11">
+        <v>70</v>
+      </c>
+      <c r="R11" t="s">
+        <v>689</v>
+      </c>
+      <c r="S11" t="s">
+        <v>690</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="0"/>
+        <v>C_BUSLICENCE_VALID id_deadline -- 依法设立或经营的执照有效期限到期日</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="M12">
+        <v>58</v>
+      </c>
+      <c r="N12" t="s">
+        <v>679</v>
+      </c>
+      <c r="O12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>679</v>
+      </c>
+      <c r="S12" t="s">
+        <v>47</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="0"/>
+        <v>C_ORGANIZATION_NO org_no -- 组织机构代码</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="M13">
+        <v>66</v>
+      </c>
+      <c r="N13" t="s">
+        <v>712</v>
+      </c>
+      <c r="O13" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q13">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>712</v>
+      </c>
+      <c r="S13" t="s">
+        <v>713</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="0"/>
+        <v>C_CEVENUE_NO tax_no -- 税务登记证号码</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="M14">
+        <v>53</v>
+      </c>
+      <c r="N14" t="s">
+        <v>663</v>
+      </c>
+      <c r="O14" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>59</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="0"/>
+        <v>C_LEGAL_NME rep_name -- 法定代表人或负责人姓名</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="M15">
+        <v>54</v>
+      </c>
+      <c r="N15" t="s">
+        <v>667</v>
+      </c>
+      <c r="O15" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>60</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="0"/>
+        <v>C_LEGAL_CERTF_CLS id_type2 -- 法定代表人或负责人身份证件种类</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="M16">
+        <v>55</v>
+      </c>
+      <c r="N16" t="s">
+        <v>669</v>
+      </c>
+      <c r="O16" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>61</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="0"/>
+        <v>C_LEGAL_CERTF_CDE id_no2 -- 法定代表人或负责人身份证件号码</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="M17">
+        <v>56</v>
+      </c>
+      <c r="N17" t="s">
+        <v>671</v>
+      </c>
+      <c r="O17" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>62</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="0"/>
+        <v>T_LEGAL_CERTF_END_TM id_deadline2 -- 有效期限到期日</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="M18">
+        <v>92</v>
+      </c>
+      <c r="N18" t="s">
+        <v>800</v>
+      </c>
+      <c r="O18" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>135</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="0"/>
+        <v>C_ACTUALHOLDING_NME man_name -- 控股股东或者实际控制人姓名</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="M19">
+        <v>93</v>
+      </c>
+      <c r="N19" t="s">
+        <v>803</v>
+      </c>
+      <c r="O19" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>136</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="0"/>
+        <v>C_ACTH_CERTF_CLS id_type3 -- 控股股东或者实际控制人身份证件类型</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="M20">
+        <v>94</v>
+      </c>
+      <c r="N20" t="s">
+        <v>807</v>
+      </c>
+      <c r="O20" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>137</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="0"/>
+        <v>C_ACTH_CERTF_CDE id_no3 -- 控股股东或者实际控制人身份证件号码</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="M21">
+        <v>95</v>
+      </c>
+      <c r="N21" t="s">
+        <v>811</v>
+      </c>
+      <c r="O21" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>138</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="0"/>
+        <v>T_ACTH_CERTF_END_TM id_deadline3 -- 控股股东或者实际控制人身份证件有效期限到期日</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>432</v>
+      </c>
+      <c r="K22" t="s">
+        <v>461</v>
+      </c>
+      <c r="M22">
+        <v>19</v>
+      </c>
+      <c r="N22" t="s">
+        <v>432</v>
+      </c>
+      <c r="O22" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>16</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="0"/>
+        <v>C_CNTR_NME ope_name -- 授权办理业务人员名称</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="I23">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>371</v>
+      </c>
+      <c r="K23" t="s">
+        <v>409</v>
+      </c>
+      <c r="M23">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>371</v>
+      </c>
+      <c r="O23" t="s">
+        <v>358</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="0"/>
+        <v> id_type4 -- 授权办理业务人员身份证件类型</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="I24">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>378</v>
+      </c>
+      <c r="K24" t="s">
+        <v>417</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>378</v>
+      </c>
+      <c r="O24" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>63</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="0"/>
+        <v>C_OPERATER_CERTF_CDE id_no4 -- 授权办理业务人员身份证件号码</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="M25">
+        <v>52</v>
+      </c>
+      <c r="N25" t="s">
+        <v>660</v>
+      </c>
+      <c r="O25" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>64</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="0"/>
+        <v>T_OPERATER_CERTF_END_TM id_deadline4 -- 授权办理业务人员身份证件有效期限到期日</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="M26">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s">
+        <v>414</v>
+      </c>
+      <c r="O26" t="s">
+        <v>105</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="0"/>
+        <v> industry_code -- 行业代码</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="M27">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s">
+        <v>422</v>
+      </c>
+      <c r="O27" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q27">
+        <v>14</v>
+      </c>
+      <c r="R27" t="s">
+        <v>414</v>
+      </c>
+      <c r="S27" t="s">
+        <v>105</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="0"/>
+        <v>C_TRD_CDE industry -- 行业</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="Q28">
+        <v>15</v>
+      </c>
+      <c r="R28" t="s">
+        <v>422</v>
+      </c>
+      <c r="S28" t="s">
+        <v>423</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="0"/>
+        <v>C_SUB_TRD_CDE reg_amt -- 注册资本金</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="W29" t="str">
+        <f t="shared" si="0"/>
+        <v> code -- 注册资本金币种</v>
+      </c>
+    </row>
+    <row r="30" spans="5:19">
+      <c r="E30" s="2">
+        <v>26</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>309</v>
+      </c>
+      <c r="K30" t="s">
+        <v>313</v>
+      </c>
+      <c r="M30">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>385</v>
+      </c>
+      <c r="O30" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>2</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15">
+      <c r="E31" s="2">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>314</v>
+      </c>
+      <c r="K31" t="s">
+        <v>326</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>309</v>
+      </c>
+      <c r="O31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="5:19">
+      <c r="E32" s="2">
+        <v>35</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>321</v>
+      </c>
+      <c r="K32" t="s">
+        <v>331</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>314</v>
+      </c>
+      <c r="O32" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>17</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="33" spans="5:19">
+      <c r="E33" s="2">
+        <v>36</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>327</v>
+      </c>
+      <c r="K33" t="s">
+        <v>339</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>321</v>
+      </c>
+      <c r="O33" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>18</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="5:19">
+      <c r="E34" s="2">
+        <v>37</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="I34">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>385</v>
+      </c>
+      <c r="K34" t="s">
+        <v>445</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>327</v>
+      </c>
+      <c r="O34" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>19</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="13:19">
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35" t="s">
+        <v>405</v>
+      </c>
+      <c r="O35" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q35">
+        <v>58</v>
+      </c>
+      <c r="R35" t="s">
+        <v>680</v>
+      </c>
+      <c r="S35" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="36" spans="9:19">
+      <c r="I36" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36" t="s">
+        <v>530</v>
+      </c>
+      <c r="O36" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>7</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="13:19">
+      <c r="M37">
+        <v>37</v>
+      </c>
+      <c r="N37" t="s">
+        <v>563</v>
+      </c>
+      <c r="O37" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="13:19">
+      <c r="M38">
+        <v>38</v>
+      </c>
+      <c r="N38" t="s">
+        <v>572</v>
+      </c>
+      <c r="O38" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="13:19">
+      <c r="M39">
+        <v>39</v>
+      </c>
+      <c r="N39" t="s">
+        <v>582</v>
+      </c>
+      <c r="O39" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="13:19">
+      <c r="M40">
+        <v>49</v>
+      </c>
+      <c r="N40" t="s">
+        <v>426</v>
+      </c>
+      <c r="O40" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="13:19">
+      <c r="M41">
+        <v>50</v>
+      </c>
+      <c r="N41" t="s">
+        <v>375</v>
+      </c>
+      <c r="O41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>65</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="13:19">
+      <c r="M42">
+        <v>51</v>
+      </c>
+      <c r="N42" t="s">
+        <v>436</v>
+      </c>
+      <c r="O42" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>11</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="13:19">
+      <c r="M43">
+        <v>60</v>
+      </c>
+      <c r="N43" t="s">
+        <v>686</v>
+      </c>
+      <c r="O43" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q43">
+        <v>12</v>
+      </c>
+      <c r="R43" t="s">
+        <v>395</v>
+      </c>
+      <c r="S43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="13:19">
+      <c r="M44">
+        <v>62</v>
+      </c>
+      <c r="N44" t="s">
+        <v>692</v>
+      </c>
+      <c r="O44" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>13</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="13:19">
+      <c r="M45">
+        <v>63</v>
+      </c>
+      <c r="N45" t="s">
+        <v>695</v>
+      </c>
+      <c r="O45" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q45">
+        <v>69</v>
+      </c>
+      <c r="R45" t="s">
+        <v>686</v>
+      </c>
+      <c r="S45" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="46" spans="13:19">
+      <c r="M46">
+        <v>64</v>
+      </c>
+      <c r="N46" t="s">
+        <v>701</v>
+      </c>
+      <c r="O46" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>9</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="13:19">
+      <c r="M47">
+        <v>65</v>
+      </c>
+      <c r="N47" t="s">
+        <v>707</v>
+      </c>
+      <c r="O47" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>10</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="13:19">
+      <c r="M48">
+        <v>69</v>
+      </c>
+      <c r="N48" t="s">
+        <v>725</v>
+      </c>
+      <c r="O48" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>57</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="49" spans="13:19">
+      <c r="M49">
+        <v>70</v>
+      </c>
+      <c r="N49" t="s">
+        <v>665</v>
+      </c>
+      <c r="O49" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q49">
+        <v>71</v>
+      </c>
+      <c r="R49" t="s">
+        <v>692</v>
+      </c>
+      <c r="S49" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="50" spans="13:19">
+      <c r="M50">
+        <v>86</v>
+      </c>
+      <c r="N50" t="s">
+        <v>787</v>
+      </c>
+      <c r="O50" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q50">
+        <v>72</v>
+      </c>
+      <c r="R50" t="s">
+        <v>695</v>
+      </c>
+      <c r="S50" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="51" spans="17:19">
+      <c r="Q51">
+        <v>73</v>
+      </c>
+      <c r="R51" t="s">
+        <v>701</v>
+      </c>
+      <c r="S51" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="52" spans="17:19">
+      <c r="Q52">
+        <v>74</v>
+      </c>
+      <c r="R52" t="s">
+        <v>707</v>
+      </c>
+      <c r="S52" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="53" spans="17:19">
+      <c r="Q53">
+        <v>78</v>
+      </c>
+      <c r="R53" t="s">
+        <v>725</v>
+      </c>
+      <c r="S53" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="54" spans="17:19">
+      <c r="Q54">
+        <v>79</v>
+      </c>
+      <c r="R54" t="s">
+        <v>563</v>
+      </c>
+      <c r="S54" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="55" spans="17:19">
+      <c r="Q55" s="4">
+        <v>132</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="56" spans="17:19">
+      <c r="Q56">
+        <v>133</v>
+      </c>
+      <c r="R56" t="s">
+        <v>794</v>
+      </c>
+      <c r="S56" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="87" spans="17:19">
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+    </row>
+    <row r="94" spans="17:19">
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+    </row>
+    <row r="97" spans="18:19">
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+    </row>
+    <row r="98" spans="18:19">
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+    </row>
+    <row r="99" spans="18:19">
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+    </row>
+    <row r="100" spans="18:19">
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="18:19">
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+    </row>
+    <row r="102" spans="18:19">
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+    </row>
+    <row r="103" spans="18:19">
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="18:19">
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="18:19">
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="18:19">
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+    </row>
+    <row r="107" spans="18:19">
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+    </row>
+    <row r="108" spans="18:19">
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+    </row>
+    <row r="109" spans="18:19">
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+    </row>
+    <row r="110" spans="18:19">
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+    </row>
+    <row r="111" spans="18:19">
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="18:19">
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+    </row>
+    <row r="113" spans="18:19">
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+    </row>
+    <row r="114" spans="18:19">
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+    </row>
+    <row r="115" spans="18:19">
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+    </row>
+    <row r="116" spans="18:19">
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+    </row>
+    <row r="117" spans="18:19">
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+    </row>
+    <row r="118" spans="18:19">
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+    </row>
+    <row r="119" spans="18:19">
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+    </row>
+    <row r="120" spans="18:19">
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+    </row>
+    <row r="121" spans="18:19">
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+    </row>
+    <row r="122" spans="18:19">
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+    </row>
+    <row r="123" spans="18:19">
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+    </row>
+    <row r="124" spans="18:19">
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+    </row>
+    <row r="125" spans="18:19">
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+    </row>
+    <row r="126" spans="18:19">
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+    </row>
+    <row r="127" spans="18:19">
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+    </row>
+    <row r="128" spans="18:19">
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+    </row>
+    <row r="129" spans="18:19">
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+    </row>
+    <row r="130" spans="18:19">
+      <c r="R130" s="5"/>
+      <c r="S130" s="5"/>
+    </row>
+    <row r="131" spans="18:19">
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="I36:K36"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:K57"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="I2" sqref="I2:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="2" max="2" width="17.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="42.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="3.22222222222222" customWidth="1"/>
+    <col min="6" max="6" width="24.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="36.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="3.22222222222222" customWidth="1"/>
+    <col min="10" max="10" width="19.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="29.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>391</v>
+      </c>
+      <c r="K11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11">
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>385</v>
+      </c>
+      <c r="G15" t="s">
+        <v>479</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>410</v>
+      </c>
+      <c r="K15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11">
+      <c r="E16">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>543</v>
+      </c>
+      <c r="G16" t="s">
+        <v>544</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>418</v>
+      </c>
+      <c r="K16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>679</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>683</v>
+      </c>
+      <c r="G18" t="s">
+        <v>684</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>438</v>
+      </c>
+      <c r="K18" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>686</v>
+      </c>
+      <c r="G19" t="s">
+        <v>687</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>446</v>
+      </c>
+      <c r="K19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="E20">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>689</v>
+      </c>
+      <c r="G20" t="s">
+        <v>690</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>376</v>
+      </c>
+      <c r="K20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11">
+      <c r="E21">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>712</v>
+      </c>
+      <c r="G21" t="s">
+        <v>713</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>457</v>
+      </c>
+      <c r="K21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="E22">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>717</v>
+      </c>
+      <c r="G22" t="s">
+        <v>718</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>462</v>
+      </c>
+      <c r="K22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="E23">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>721</v>
+      </c>
+      <c r="G23" t="s">
+        <v>722</v>
+      </c>
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>467</v>
+      </c>
+      <c r="K23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="E24">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>725</v>
+      </c>
+      <c r="G24" t="s">
+        <v>726</v>
+      </c>
+      <c r="I24">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>501</v>
+      </c>
+      <c r="K24" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="E25">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>665</v>
+      </c>
+      <c r="G25" t="s">
+        <v>684</v>
+      </c>
+      <c r="I25">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>474</v>
+      </c>
+      <c r="K25" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="E26">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>787</v>
+      </c>
+      <c r="G26" t="s">
+        <v>788</v>
+      </c>
+      <c r="I26">
+        <v>56</v>
+      </c>
+      <c r="J26" t="s">
+        <v>480</v>
+      </c>
+      <c r="K26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="E27">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>588</v>
+      </c>
+      <c r="G27" t="s">
+        <v>589</v>
+      </c>
+      <c r="I27">
+        <v>58</v>
+      </c>
+      <c r="J27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K27" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="E28">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>790</v>
+      </c>
+      <c r="G28" t="s">
+        <v>791</v>
+      </c>
+      <c r="I28">
+        <v>64</v>
+      </c>
+      <c r="J28" t="s">
+        <v>699</v>
+      </c>
+      <c r="K28" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11">
+      <c r="E29">
+        <v>89</v>
+      </c>
+      <c r="F29" t="s">
+        <v>792</v>
+      </c>
+      <c r="G29" t="s">
+        <v>793</v>
+      </c>
+      <c r="I29">
+        <v>65</v>
+      </c>
+      <c r="J29" t="s">
+        <v>705</v>
+      </c>
+      <c r="K29" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="E30">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>794</v>
+      </c>
+      <c r="G30" t="s">
+        <v>795</v>
+      </c>
+      <c r="I30">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
+        <v>710</v>
+      </c>
+      <c r="K30" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="E31">
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>797</v>
+      </c>
+      <c r="G31" t="s">
+        <v>798</v>
+      </c>
+      <c r="I31">
+        <v>67</v>
+      </c>
+      <c r="J31" t="s">
+        <v>389</v>
+      </c>
+      <c r="K31" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11">
+      <c r="E32">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>800</v>
+      </c>
+      <c r="G32" t="s">
+        <v>801</v>
+      </c>
+      <c r="I32">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>719</v>
+      </c>
+      <c r="K32" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11">
+      <c r="E33">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>803</v>
+      </c>
+      <c r="G33" t="s">
+        <v>804</v>
+      </c>
+      <c r="I33">
+        <v>69</v>
+      </c>
+      <c r="J33" t="s">
+        <v>723</v>
+      </c>
+      <c r="K33" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11">
+      <c r="E34">
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>807</v>
+      </c>
+      <c r="G34" t="s">
+        <v>808</v>
+      </c>
+      <c r="I34">
+        <v>70</v>
+      </c>
+      <c r="J34" t="s">
+        <v>727</v>
+      </c>
+      <c r="K34" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11">
+      <c r="E35">
+        <v>95</v>
+      </c>
+      <c r="F35" t="s">
+        <v>811</v>
+      </c>
+      <c r="G35" t="s">
+        <v>812</v>
+      </c>
+      <c r="I35">
+        <v>72</v>
+      </c>
+      <c r="J35" t="s">
+        <v>342</v>
+      </c>
+      <c r="K35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11">
+      <c r="I36">
+        <v>73</v>
+      </c>
+      <c r="J36" t="s">
+        <v>735</v>
+      </c>
+      <c r="K36" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" t="s">
+        <v>310</v>
+      </c>
+      <c r="I37">
+        <v>74</v>
+      </c>
+      <c r="J37" t="s">
+        <v>739</v>
+      </c>
+      <c r="K37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>314</v>
+      </c>
+      <c r="G38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>321</v>
+      </c>
+      <c r="G39" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>327</v>
+      </c>
+      <c r="G40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11">
+      <c r="I41">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s">
+        <v>762</v>
+      </c>
+      <c r="K41" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11">
+      <c r="I42">
+        <v>81</v>
+      </c>
+      <c r="J42" t="s">
+        <v>767</v>
+      </c>
+      <c r="K42" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11">
+      <c r="I43">
+        <v>82</v>
+      </c>
+      <c r="J43" t="s">
+        <v>771</v>
+      </c>
+      <c r="K43" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11">
+      <c r="I44">
+        <v>83</v>
+      </c>
+      <c r="J44" t="s">
+        <v>775</v>
+      </c>
+      <c r="K44" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11">
+      <c r="I45">
+        <v>84</v>
+      </c>
+      <c r="J45" t="s">
+        <v>779</v>
+      </c>
+      <c r="K45" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11">
+      <c r="I46">
+        <v>85</v>
+      </c>
+      <c r="J46" t="s">
+        <v>783</v>
+      </c>
+      <c r="K46" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11">
+      <c r="I47">
+        <v>86</v>
+      </c>
+      <c r="J47" t="s">
+        <v>588</v>
+      </c>
+      <c r="K47" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10">
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10">
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11">
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>314</v>
+      </c>
+      <c r="K51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11">
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>321</v>
+      </c>
+      <c r="K52" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11">
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K53" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11">
+      <c r="I54">
+        <v>7</v>
+      </c>
+      <c r="J54" t="s">
+        <v>348</v>
+      </c>
+      <c r="K54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11">
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55" t="s">
+        <v>357</v>
+      </c>
+      <c r="K55" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11">
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56" t="s">
+        <v>367</v>
+      </c>
+      <c r="K56" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11">
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57" t="s">
+        <v>375</v>
+      </c>
+      <c r="K57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="23.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="25.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="64.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="13.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="58.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D1"/>
+      <c r="E1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT(C1,E1,F1," ",B1)</f>
+        <v>a.C_APP_CDE cst_no</v>
+      </c>
+      <c r="H1" t="str">
+        <f>_xlfn.CONCAT(",group_concat(",B1," order by cst_no, license, id_type5, id_no5",") ",B1)</f>
+        <v>,group_concat(cst_no order by cst_no, license, id_type5, id_no5) cst_no</v>
+      </c>
+      <c r="J1" t="str">
+        <f>_xlfn.CONCAT(",ifnull(substring_index(",B1,",',',",1,")"," ,'@N') ",B1)</f>
+        <v>,ifnull(substring_index(cst_no,',',1) ,'@N') cst_no</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>899</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G10" si="0">_xlfn.CONCAT(C2,E2,F2," ",B2)</f>
+        <v>a.C_APP_NME acc_name</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H10" si="1">_xlfn.CONCAT(",group_concat(",B2," order by cst_no, license, id_type5, id_no5",") ",B2)</f>
+        <v>,group_concat(acc_name order by cst_no, license, id_type5, id_no5) acc_name</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(",ifnull(substring_index(",B2,",',',",1,")"," ,'@N') ",B2)</f>
+        <v>,ifnull(substring_index(acc_name,',',1) ,'@N') acc_name</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>899</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>a.C_CERTF_CDE license</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>,group_concat(license order by cst_no, license, id_type5, id_no5) license</v>
+      </c>
+      <c r="J3" t="str">
+        <f>_xlfn.CONCAT(",ifnull(substring_index(",B3,",',',",1,")"," ,'@N') ",B3)</f>
+        <v>,ifnull(substring_index(license,',',1) ,'@N') license</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>900</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>b.C_BNFC_NME bnf_name</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>,group_concat(bnf_name order by cst_no, license, id_type5, id_no5) bnf_name</v>
+      </c>
+      <c r="J4" t="str">
+        <f>_xlfn.CONCAT(",ifnull(substring_index(",B4,",',',",1,")"," ,'@N') ",B4)</f>
+        <v>,ifnull(substring_index(bnf_name,',',1) ,'@N') bnf_name</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v> bnf_type</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>,group_concat(bnf_type order by cst_no, license, id_type5, id_no5) bnf_type</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(",ifnull(substring_index(",B5,",',',",1,")"," ,'@N') ",B5)</f>
+        <v>,ifnull(substring_index(bnf_type,',',1) ,'@N') bnf_type</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v> shareholding_ratio</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>,group_concat(shareholding_ratio order by cst_no, license, id_type5, id_no5) shareholding_ratio</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(",ifnull(substring_index(",B6,",',',",1,")"," ,'@N') ",B6)</f>
+        <v>,ifnull(substring_index(shareholding_ratio,',',1) ,'@N') shareholding_ratio</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v> bnf_address</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>,group_concat(bnf_address order by cst_no, license, id_type5, id_no5) bnf_address</v>
+      </c>
+      <c r="J7" t="str">
+        <f>_xlfn.CONCAT(",ifnull(substring_index(",B7,",',',",1,")"," ,'@N') ",B7)</f>
+        <v>,ifnull(substring_index(bnf_address,',',1) ,'@N') bnf_address</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>900</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>b.C_BNFC_CERT_TYP id_type5</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>,group_concat(id_type5 order by cst_no, license, id_type5, id_no5) id_type5</v>
+      </c>
+      <c r="J8" t="str">
+        <f>_xlfn.CONCAT(",ifnull(substring_index(",B8,",',',",1,")"," ,'@N') ",B8)</f>
+        <v>,ifnull(substring_index(id_type5,',',1) ,'@N') id_type5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>900</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>b.C_BNFC_CERT_NO id_no5</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>,group_concat(id_no5 order by cst_no, license, id_type5, id_no5) id_no5</v>
+      </c>
+      <c r="J9" t="str">
+        <f>_xlfn.CONCAT(",ifnull(substring_index(",B9,",',',",1,")"," ,'@N') ",B9)</f>
+        <v>,ifnull(substring_index(id_no5,',',1) ,'@N') id_no5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v> id_deadline5</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>,group_concat(id_deadline5 order by cst_no, license, id_type5, id_no5) id_deadline5</v>
+      </c>
+      <c r="J10" t="str">
+        <f>_xlfn.CONCAT(",ifnull(substring_index(",B10,",',',",1,")"," ,'@N') ",B10)</f>
+        <v>,ifnull(substring_index(id_deadline5,',',1) ,'@N') id_deadline5</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" t="str">
+        <f t="shared" ref="G2:G31" si="2">_xlfn.CONCAT(D11," ",B11)</f>
+        <v> </v>
+      </c>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="23" spans="7:7">
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="24" spans="7:7">
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="30" spans="7:7">
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v> </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>